--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_151.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_151.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,646 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.09125874125874125</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'Bb'], ['G:min7', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_51</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_132</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.09659090909090909</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>[['C', 'A:min', 'C']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.155, 20.379), (39.976, 44.64)]</t>
+          <t>[['B/7', 'G#:min', 'B/5']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(54.76, 62.82), (67.56, 74.1)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.459543', '0:00:06.612448')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:01.933628', '0:00:06.449909')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1582417582417582</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D#:min/A#', 'A#:7', 'D#:min']]</t>
-        </is>
+          <t>isophonics_282</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_296</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F/5', 'Eb/5', 'Bb'], ['Eb', 'Bb', 'F'], ['Eb/5', 'Bb', 'Bb'], ['Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(134.22, 139.56)]</t>
+          <t>[['A:maj', 'G:maj', 'D:maj'], ['C:maj', 'G:maj', 'D:maj'], ['C:maj', 'G/3', 'G:maj'], ['C:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(17.833, 21.409)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:07.324217', '0:00:10.040952'), ('0:00:29.719863', '0:00:35.722222'), ('0:00:08.624535', '0:00:15.172562'), ('0:00:44.917324', '0:00:48.272607')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:56.816000', '0:01:01.257000'), ('0:00:16.277000', '0:00:24.195000'), ('0:00:40.171000', '0:00:43.498000'), ('0:00:12.446000', '0:00:16.277000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2153846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2363636363636364</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(140.48, 145.98), (1.56, 6.9)]</t>
+          <t>[['A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9), (1.18, 6.14)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:01.540000', '0:00:03.580000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:22.400000', '0:00:31.860000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2083333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min', 'G:min', 'A:hdim7/C', 'D:7', 'G:min', 'F#:dim7', 'G:min', 'F#:dim7', 'D:maj/A', 'G:min/A#', 'F:maj/A', 'D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F', 'F:7', 'A#:maj', 'D#:maj/G', 'D:min/A', 'A:7', 'D:min', 'C#:dim7/E', 'D:min/F', 'D:(3,5,b7,b9)/F#', 'G:min', 'G:(3,5,b7,b9)', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'F#:dim7', 'A:hdim7/C', 'F#:dim7', 'A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min', 'G:(3,5,b7,b9)/B', 'C:min', 'G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(13.08, 74.3)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(9.18, 61.0)]</t>
+          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1899350649350649</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A:maj', 'C#:7/G#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1666666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G', 'B:7', 'E:min']]</t>
+          <t>[['B:hdim7/A', 'A:min', 'B:hdim7/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.2, 7.76)]</t>
+          <t>[['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.427, 5.357)]</t>
+          <t>[('0:00:06.860000', '0:00:25.500000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:01:02.900000', '0:01:12.680000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2318840579710145</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5465116279069767</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(8.74, 17.66)]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(17.48, 19.72)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:07.284457', '0:00:22.098788')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.162280701754386</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
+          <t>jaah_41</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_220</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3792667509481669</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['F', 'F', 'F', 'F', 'F']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
+          <t>[['D', 'D', 'D/7', 'D/6', 'D/5']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(6.357029, 23.632675)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:13.330000', '0:02:19.230000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:00.325509', '0:00:04.348503')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1169415292353823</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.58, 5.02)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(15.78, 21.28)]</t>
+          <t>[('0:01:15.560000', '0:01:35.680000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.04807692307692308</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_2</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(226.62, 230.46), (20.92, 24.02), (7.3, 10.3)]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(72.52, 83.28), (40.82, 43.62), (94.8, 106.96)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:08.080000', '0:00:24.940000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:20.560000', '0:00:26.400000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3197674418604651</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E', 'A', 'E', 'B']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E', 'A', 'E', 'B']]</t>
+          <t>[['G:min', 'A:7/C#', 'D:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(4.103323, 22.098788)]</t>
+          <t>[['C:min', 'D:7', 'G'], ['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(26.343061, 44.245646)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:14.300000', '0:00:20.560000'), ('0:01:05.440000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:14.967000', '0:01:24.194000'), ('0:00:48.001000', '0:00:54.307000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2767857142857143</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C#:maj', 'G#:7', 'C#:maj'], ['G#:7', 'C#:maj', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_12</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.48, 8.48), (25.9, 35.06)]</t>
+          <t>[['B:min', 'F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(66.92, 68.18), (67.5, 70.3)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:13.020000', '0:00:45.300000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:13.320000', '0:00:43.780000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1944444444444444</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F', 'Bb', 'Eb:7', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G:7', 'D']]</t>
+          <t>[['G:(3,5,b7,b9)', 'C:min', 'E:dim7'], ['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj'], ['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(27.910918, 44.466746)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(33.978866, 43.266847)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
-        </is>
-      </c>
+          <t>[('0:00:11.760000', '0:00:15.640000'), ('0:00:20.540000', '0:00:23.160000'), ('0:00:16.240000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.54, 138.86)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(1.44, 130.84)]</t>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:13.420000', '0:00:53.020000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2989130434782609</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'B', 'E', 'A', 'B', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E', 'A', 'D', 'E', 'A', 'D']]</t>
+          <t>[['A:7', 'G:min/A#', 'C:7', 'F:maj', 'F:maj', 'D:min', 'G:min/A#', 'C:7', 'F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'G:min/A#', 'C:7', 'F:maj', 'C:min/D#', 'D:hdim7', 'C:min/D#', 'D:(3,b5,b7)', 'C:min/D#', 'C:min/D#', 'F:7', 'A#:min', 'C:(3,b5,b7)', 'A#:min/C#', 'D#:min/F#', 'F:hdim7', 'D#:min/F#', 'F:(3,b5,b7)', 'D#:min/F#', 'A#:min/C#', 'F:min/C', 'C:7', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'F#:maj/A#', 'F:min', 'G:(3,b5,b7)/F', 'F:min', 'C:7', 'F:min', 'F:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'G:min7/A#', 'C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A', 'A#:min', 'F:min/G#', 'A#:min', 'F:min/G#', 'G:hdim7/C#', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(28.208042, 39.37684)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.366281, 20.172902)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:05.060000', '0:02:03.260000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_59</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.03403365338910543</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:min7', 'F:7', 'Bb', 'Bb', 'C:min7', 'F:7']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb', 'Eb', 'F:min7', 'Bb:7']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(5.91, 9.58)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(8.35, 14.24)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_4</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_205</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1098507462686567</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Eb', 'Eb']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E', 'E/2', 'E/3', 'E/4']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(0.64, 14.15)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(63.419996, 67.655272)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
